--- a/data/validation_data/analyte3_validation_data.xlsx
+++ b/data/validation_data/analyte3_validation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>159.3</v>
+        <v>164.1</v>
       </c>
       <c r="B2" t="n">
-        <v>-58.9</v>
+        <v>-64.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.3</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>839.78</v>
+        <v>979</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -479,16 +479,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>164.52</v>
+        <v>139.4</v>
       </c>
       <c r="B3" t="n">
-        <v>-64</v>
+        <v>-56.4</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.17</v>
+        <v>-2.67</v>
       </c>
       <c r="D3" t="n">
-        <v>979</v>
+        <v>700.78</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108.7</v>
+        <v>138</v>
       </c>
       <c r="B4" t="n">
-        <v>-55.1</v>
+        <v>-55.8</v>
       </c>
       <c r="C4" t="n">
-        <v>49.89</v>
+        <v>-2.15</v>
       </c>
       <c r="D4" t="n">
-        <v>610.5599999999999</v>
+        <v>700.67</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -513,16 +513,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109.723</v>
+        <v>164</v>
       </c>
       <c r="B5" t="n">
-        <v>-56.1</v>
+        <v>-64</v>
       </c>
       <c r="C5" t="n">
-        <v>49.5</v>
+        <v>-9.17</v>
       </c>
       <c r="D5" t="n">
-        <v>610.89</v>
+        <v>979.89</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -530,18 +530,103 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>164</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>-64</v>
+        <v>-50</v>
       </c>
       <c r="C6" t="n">
-        <v>-9.17</v>
+        <v>66.89</v>
       </c>
       <c r="D6" t="n">
-        <v>979.89</v>
+        <v>521</v>
       </c>
       <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>109.723</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-54</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50.661</v>
+      </c>
+      <c r="D7" t="n">
+        <v>610</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>138</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-55.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>700.67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>161.443</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-58.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>839.78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-59.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.48</v>
+      </c>
+      <c r="D10" t="n">
+        <v>839</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>109</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-55.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50.661</v>
+      </c>
+      <c r="D11" t="n">
+        <v>610.67</v>
+      </c>
+      <c r="E11" t="n">
         <v>3</v>
       </c>
     </row>
